--- a/excel/calculadora_IT_OT.xlsx
+++ b/excel/calculadora_IT_OT.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupstucom-my.sharepoint.com/personal/llorenc_huguet_365_stucom_com/Documents/Documentos/GitHub/Digitalizacion/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{664E4ED6-0F2D-414E-8487-EF42C32A33C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="8_{664E4ED6-0F2D-414E-8487-EF42C32A33C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED3E9D21-C48D-4290-84A6-6DEB77BAD335}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-8865" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supuestos" sheetId="1" r:id="rId1"/>
-    <sheet name="Costes IT-OT" sheetId="3" r:id="rId2"/>
-    <sheet name="GLOSARIO IT-OT" sheetId="4" r:id="rId3"/>
-    <sheet name="Calculadora" sheetId="2" r:id="rId4"/>
+    <sheet name="Calculadora" sheetId="2" r:id="rId2"/>
+    <sheet name="ORG-DIG-02" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ORG-DIG-02'!$F$1:$F$23</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'ORG-DIG-02'!$B$12</definedName>
     <definedName name="MaxCol">Supuestos!$C$4:$C$6</definedName>
     <definedName name="MedCol">Supuestos!$D$4:$D$6</definedName>
     <definedName name="MinCol">Supuestos!$B$4:$B$6</definedName>
     <definedName name="Tipos">Supuestos!$A$4:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
   <si>
     <t>Rangos de tarifa por tipo de consultor (España, IT/OT)</t>
   </si>
@@ -159,15 +159,9 @@
     <t>Calculo de horas</t>
   </si>
   <si>
-    <t>Objetivos básicos</t>
-  </si>
-  <si>
     <t>8 horas</t>
   </si>
   <si>
-    <t>Objetivos secundarios</t>
-  </si>
-  <si>
     <t>24 horas</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>4 horas</t>
   </si>
   <si>
-    <t>• Contabiliza los objetivos básicos y secundarios para tener una estimación de las horas necesarias</t>
-  </si>
-  <si>
     <t>Elemento</t>
   </si>
   <si>
@@ -331,6 +322,162 @@
   </si>
   <si>
     <t>Costes recurrentes de operación (licencias de software, mantenimiento, servicios en la nube).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivos </t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>METRICA</t>
+  </si>
+  <si>
+    <t>RENTABILIDAD</t>
+  </si>
+  <si>
+    <t>Todos los departamentos trabajan con la misma información actualizada.</t>
+  </si>
+  <si>
+    <t>PROYECTOS</t>
+  </si>
+  <si>
+    <t>Asignación de responsables</t>
+  </si>
+  <si>
+    <t>Formación personal</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>CONSULTOR</t>
+  </si>
+  <si>
+    <t>SENIOR</t>
+  </si>
+  <si>
+    <t>MEDIO</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>COSTOS</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>RENTABILIDAD ESPERADA</t>
+  </si>
+  <si>
+    <t>Glosario</t>
+  </si>
+  <si>
+    <t>Sistema de información con Excel</t>
+  </si>
+  <si>
+    <t>Paquete Office</t>
+  </si>
+  <si>
+    <t>Licencias empresarial</t>
+  </si>
+  <si>
+    <t>Licencia empresarial Office</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TECNOLOGÍAS</t>
+  </si>
+  <si>
+    <t>EXCEL+CONECTIVIDAD</t>
+  </si>
+  <si>
+    <t>WEB FORMACION</t>
+  </si>
+  <si>
+    <t>NO UTILIZAR</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>INCREMENTAR CALIDAD</t>
+  </si>
+  <si>
+    <t>REDUCCIÓN TIEMPO</t>
+  </si>
+  <si>
+    <t>Seleccionar tipo consultor</t>
+  </si>
+  <si>
+    <t>Seleccionar uso tecnología</t>
+  </si>
+  <si>
+    <t>JUSTIFICA TUS DECISIONES</t>
+  </si>
+  <si>
+    <t>• Contabiliza los objetivos y los proyectos para tener una estimación de las horas necesarias. Por ejemplo si un objetivo lo realiza un consultor senior tendrá una duración de 8 horas. Si un proyecto lo realiza un junior tardará 12 horas.</t>
+  </si>
+  <si>
+    <t>(SIN SELECCIONAR)</t>
+  </si>
+  <si>
+    <t>Nuevo proyecto</t>
+  </si>
+  <si>
+    <t>Nueva métrica relacionada con el proyecto</t>
+  </si>
+  <si>
+    <t>Nuevo tipo de rentabilidad del proyecto</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>PROPON UN NUEVO PROYECTO</t>
+  </si>
+  <si>
+    <t>CLIMA LABORAL</t>
+  </si>
+  <si>
+    <t>Colaboración interdepartamental</t>
+  </si>
+  <si>
+    <t>Reconocimiento del esfuerzo digital</t>
+  </si>
+  <si>
+    <t>Mejora de la autonomía</t>
+  </si>
+  <si>
+    <t>Resistencia al cambio</t>
+  </si>
+  <si>
+    <t>Sobrecarga inicial de trabajo</t>
+  </si>
+  <si>
+    <t>Brecha digital interna</t>
+  </si>
+  <si>
+    <t>MÉTRICAS</t>
+  </si>
+  <si>
+    <t>DISMINUCIÓN ERRORES</t>
+  </si>
+  <si>
+    <t>Selecciona la ejecución</t>
   </si>
 </sst>
 </file>
@@ -340,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\€\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +527,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +549,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -418,11 +579,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,9 +697,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -446,8 +710,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,6 +771,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,22 +1064,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,8 +1112,20 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -796,8 +1139,20 @@
         <f>AVERAGE(B4:C4)</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -811,8 +1166,14 @@
         <f>AVERAGE(B5:C5)</f>
         <v>67.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -826,458 +1187,401 @@
         <f>AVERAGE(B6:C6)</f>
         <v>107.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="H11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="D13" s="8">
+        <f>B13*C13</f>
+        <v>7500</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>500</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D16" si="0">B14*C14</f>
+        <v>10000</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7">
+        <v>800</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10">
+        <f>SUM(D13:D16)</f>
+        <v>25500</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8000</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D23" s="8">
+        <v>6000</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C24" s="7">
+        <v>600</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3600</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="8">
+        <v>7000</v>
+      </c>
+      <c r="D25" s="8">
+        <v>7000</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="7">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>46</v>
+      <c r="C26" s="8">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <f>B26*C26</f>
+        <v>4800</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10">
+        <f>SUM(D21:D26)</f>
+        <v>39400</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H5:K8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E56203-D3A5-4B20-AFD5-82639338F8D7}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="9">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="8">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8">
-        <v>500</v>
-      </c>
-      <c r="D4" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="8">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
-        <v>800</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>8000</v>
-      </c>
-      <c r="D11" s="9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D13" s="9">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="8">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8">
-        <v>600</v>
-      </c>
-      <c r="D14" s="9">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="9">
-        <v>7000</v>
-      </c>
-      <c r="D15" s="9">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11">
-        <v>34600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87999F9-F925-4ACB-899B-E19AF2A74892}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1383,7 +1687,7 @@
       </c>
       <c r="B10" s="4">
         <f>B5*B9</f>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1426,15 +1730,15 @@
       </c>
       <c r="B15" s="4">
         <f>B5*B14</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4">
         <f>B5*C14</f>
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="D15" s="4">
         <f>B5*D14</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1465,4 +1769,428 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A7E1EF-D4A3-433E-AB47-0E3539979D43}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="H1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="26"/>
+      <c r="H2" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="H3" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="H4" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="26"/>
+      <c r="H5" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="H8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="26"/>
+      <c r="H9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="F11" s="26"/>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="F13" s="26"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="H14" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="H15" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="H16" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="H17" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="F18" s="26"/>
+      <c r="H18" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="27"/>
+      <c r="H19" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
+      <c r="H20" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="H21" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="H23" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="27"/>
+      <c r="H24" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="27"/>
+      <c r="H25" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="H26" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B19:D26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13" xr:uid="{BC2E7F79-7354-42B6-B8D9-768A0B5A0E48}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 B8:D8 B15:D15 B17:D17" xr:uid="{4C2CD737-4FAA-4A89-BE74-865DEBFE4AED}">
+      <formula1>$H$19:$H$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:D11" xr:uid="{26E71B58-CF50-4D67-A67B-1F3D006BAB8D}">
+      <formula1>$H$24:$H$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7" xr:uid="{E8B01BEA-0B81-46AF-B906-74201A40FEAD}">
+      <formula1>$H$15:$H$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12" xr:uid="{AC1FD742-9F25-4281-9812-BFB96C597D39}">
+      <formula1>$H$2:$H$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/calculadora_IT_OT.xlsx
+++ b/excel/calculadora_IT_OT.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupstucom-my.sharepoint.com/personal/llorenc_huguet_365_stucom_com/Documents/Documentos/GitHub/Digitalizacion/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="8_{664E4ED6-0F2D-414E-8487-EF42C32A33C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED3E9D21-C48D-4290-84A6-6DEB77BAD335}"/>
+  <xr:revisionPtr revIDLastSave="480" documentId="8_{664E4ED6-0F2D-414E-8487-EF42C32A33C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{854365C9-9EB5-4963-A897-B20B3B73C186}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8865" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supuestos" sheetId="1" r:id="rId1"/>
     <sheet name="Calculadora" sheetId="2" r:id="rId2"/>
     <sheet name="ORG-DIG-02" sheetId="5" r:id="rId3"/>
+    <sheet name="ORG-DIG-07" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ORG-DIG-02'!$F$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ORG-DIG-07'!$F$1:$F$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">'ORG-DIG-02'!$B$12</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">'ORG-DIG-07'!$B$12</definedName>
     <definedName name="MaxCol">Supuestos!$C$4:$C$6</definedName>
     <definedName name="MedCol">Supuestos!$D$4:$D$6</definedName>
     <definedName name="MinCol">Supuestos!$B$4:$B$6</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="158">
   <si>
     <t>Rangos de tarifa por tipo de consultor (España, IT/OT)</t>
   </si>
@@ -478,6 +481,45 @@
   </si>
   <si>
     <t>Selecciona la ejecución</t>
+  </si>
+  <si>
+    <t>Integrar los procesos de oficina (IT) con los de planta y logística (OT)</t>
+  </si>
+  <si>
+    <t>Integración IT–OT de pedidos y planta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitorización digital de frío y transporte </t>
+  </si>
+  <si>
+    <t>Panel único para dirección y clientes</t>
+  </si>
+  <si>
+    <t>Reducción de retrasos en exportaciones.  </t>
+  </si>
+  <si>
+    <t>Reducción de costes energéticos en cámaras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aumento de satisfacción y confianza de clientes. </t>
+  </si>
+  <si>
+    <t>PLCs industriales</t>
+  </si>
+  <si>
+    <t>Sensores IoT</t>
+  </si>
+  <si>
+    <t>Cámaras IP</t>
+  </si>
+  <si>
+    <t>Gateways IT–OT</t>
+  </si>
+  <si>
+    <t>SELECCIÓN</t>
+  </si>
+  <si>
+    <t>Selecciona tecnología principal</t>
   </si>
 </sst>
 </file>
@@ -712,14 +754,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -748,8 +792,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1166,12 +1208,12 @@
         <f>AVERAGE(B5:C5)</f>
         <v>67.5</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1187,28 +1229,28 @@
         <f>AVERAGE(B6:C6)</f>
         <v>107.5</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -1775,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A7E1EF-D4A3-433E-AB47-0E3539979D43}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1828,7 @@
     <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1806,7 +1848,7 @@
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="26"/>
+      <c r="F2" s="15"/>
       <c r="H2" s="11" t="s">
         <v>129</v>
       </c>
@@ -1824,7 +1866,7 @@
       <c r="D3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="15"/>
       <c r="H3" s="11" t="s">
         <v>124</v>
       </c>
@@ -1842,13 +1884,13 @@
       <c r="D4" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="15"/>
       <c r="H4" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="26"/>
+      <c r="F5" s="15"/>
       <c r="H5" s="11" t="s">
         <v>143</v>
       </c>
@@ -1895,14 +1937,14 @@
       <c r="D8" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="15"/>
       <c r="H8" s="11" t="s">
         <v>129</v>
       </c>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="26"/>
+      <c r="F9" s="15"/>
       <c r="H9" s="11" t="s">
         <v>119</v>
       </c>
@@ -1928,7 +1970,7 @@
     </row>
     <row r="11" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
-      <c r="F11" s="26"/>
+      <c r="F11" s="15"/>
       <c r="H11" t="s">
         <v>117</v>
       </c>
@@ -1953,7 +1995,7 @@
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="15"/>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1985,7 +2027,7 @@
       <c r="D15" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="15"/>
       <c r="H15" s="11" t="s">
         <v>129</v>
       </c>
@@ -2001,7 +2043,7 @@
       <c r="D16" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="15"/>
       <c r="H16" s="11" t="s">
         <v>104</v>
       </c>
@@ -2017,14 +2059,14 @@
       <c r="D17" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="15"/>
       <c r="H17" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="15"/>
       <c r="H18" s="11" t="s">
         <v>106</v>
       </c>
@@ -2033,84 +2075,82 @@
       <c r="A19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="27"/>
-      <c r="H19" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="16"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26"/>
-      <c r="H20" s="11" t="s">
-        <v>102</v>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
       <c r="H21" s="11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="H22" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26"/>
-      <c r="H23" s="12" t="s">
-        <v>109</v>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="27"/>
-      <c r="H24" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="16"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="27"/>
-      <c r="H25" s="11" t="s">
-        <v>120</v>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="16"/>
+      <c r="H25" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="16"/>
       <c r="H26" s="11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2160,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,6 +2171,9 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
@@ -2138,6 +2181,9 @@
       </c>
       <c r="C29" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2156,7 +2202,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
@@ -2165,7 +2211,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2178,18 +2224,408 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13" xr:uid="{BC2E7F79-7354-42B6-B8D9-768A0B5A0E48}">
       <formula1>$H$2:$H$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 B8:D8 B15:D15 B17:D17" xr:uid="{4C2CD737-4FAA-4A89-BE74-865DEBFE4AED}">
-      <formula1>$H$19:$H$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:D11" xr:uid="{26E71B58-CF50-4D67-A67B-1F3D006BAB8D}">
-      <formula1>$H$24:$H$27</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7" xr:uid="{E8B01BEA-0B81-46AF-B906-74201A40FEAD}">
       <formula1>$H$15:$H$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12" xr:uid="{AC1FD742-9F25-4281-9812-BFB96C597D39}">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 B8:D8 B15:D15 B17:D17" xr:uid="{4C2CD737-4FAA-4A89-BE74-865DEBFE4AED}">
+      <formula1>$H$21:$H$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:D11" xr:uid="{26E71B58-CF50-4D67-A67B-1F3D006BAB8D}">
+      <formula1>$H$26:$H$29</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2826F6-22F6-4B80-AACB-771619D05E13}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="H18" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="16"/>
+      <c r="H20" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="H21" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="16"/>
+      <c r="H22" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="16"/>
+      <c r="H23" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="16"/>
+      <c r="H25" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="16"/>
+      <c r="H26" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B19:D26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12" xr:uid="{35B7167B-493D-467B-9CE3-11F2BCF619C9}">
+      <formula1>$H$2:$H$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7" xr:uid="{91967A11-D29D-4841-8044-6AD44DA8A6AC}">
+      <formula1>$H$15:$H$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13" xr:uid="{E8E3BD6B-9E1C-485E-9B49-99A767ACD6FE}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:D11" xr:uid="{8699104E-A017-4A85-B308-2E1BFC352EF4}">
+      <formula1>$H$26:$H$29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 B17:D17 B15:D15" xr:uid="{E3B60488-97C3-4CBB-924D-CB300356DAF9}">
+      <formula1>$H$21:$H$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:D8" xr:uid="{09B8C2F6-84D7-448D-A03D-D950622DA122}">
+      <formula1>$H$8:$H$13</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
